--- a/Graficos y data.xlsx
+++ b/Graficos y data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/dhnmelfer_estudiantec_cr/Documents/Documentos/TEC/III Semestre/Analisis de algoritmos/Casos/Caso2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/dhnmelfer_estudiantec_cr/Documents/Documentos/TEC/III Semestre/Analisis de algoritmos/Casos/Caso2/Caso2MelanySalas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="490" documentId="8_{11668E90-3595-4F63-918F-A1F6182A0791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2297F8F5-B47D-4950-8734-7148E153C191}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="8_{11668E90-3595-4F63-918F-A1F6182A0791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E21EDE-A4DA-49BA-BED0-FD55A72E099D}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11235" windowHeight="9735" xr2:uid="{2F1ED3F0-0125-4EF3-9718-465DC28973F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2F1ED3F0-0125-4EF3-9718-465DC28973F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -318,11 +318,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,35 +360,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,8 +378,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,6 +1265,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Cambios</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1236,9 +1280,62 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$18:$D$27</c:f>
+              <c:f>Hoja1!$D$34:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1301,6 +1398,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1554,7 +1652,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$18:$C$27</c:f>
+              <c:f>Hoja1!$C$34:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1868,7 +1966,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$18:$B$27</c:f>
+              <c:f>Hoja1!$B$34:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2191,7 +2289,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$51:$A$60</c:f>
+              <c:f>Hoja1!$A$66:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2230,7 +2328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$51:$B$60</c:f>
+              <c:f>Hoja1!$B$66:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2294,7 +2392,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$51:$A$60</c:f>
+              <c:f>Hoja1!$A$66:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2333,7 +2431,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$51:$D$60</c:f>
+              <c:f>Hoja1!$D$66:$D$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2675,7 +2773,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$51:$A$60</c:f>
+              <c:f>Hoja1!$A$66:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2714,7 +2812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$51:$H$60</c:f>
+              <c:f>Hoja1!$H$66:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2778,7 +2876,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$51:$F$60</c:f>
+              <c:f>Hoja1!$F$66:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2968,391 +3066,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="489421935"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Cambios</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Hoja1!$A$5:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$5:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2000999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8001999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18002999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32003999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50004999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72005999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>98006999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128007999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>162008999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200009999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-AF97-42FF-8958-D237F1F14A60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="805932192"/>
-        <c:axId val="805935520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="805932192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="805935520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="805935520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="805932192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3719,46 +3432,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7358,536 +7031,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7914,16 +7071,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7950,16 +7107,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7987,15 +7144,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8023,15 +7180,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8058,16 +7215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8094,16 +7251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>309561</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8123,42 +7280,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F2C23D-8C51-4A79-8FC5-B328D5D6C1B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8464,10 +7585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D9CBD-377A-44E1-9C3F-AA845A571B98}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8485,50 +7606,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -8855,874 +7976,704 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>2</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="5">
+        <v>23116</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2651</v>
+      </c>
+      <c r="D34" s="5">
+        <v>12619</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5">
+        <v>29597</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2173</v>
+      </c>
+      <c r="H34" s="8">
+        <v>12942</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B18" s="5">
-        <v>23116</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2651</v>
-      </c>
-      <c r="D18" s="5">
-        <v>12619</v>
-      </c>
-      <c r="E18" s="5" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B35" s="5">
+        <v>55532</v>
+      </c>
+      <c r="C35" s="5">
+        <v>5373</v>
+      </c>
+      <c r="D35" s="5">
+        <v>29001</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="5">
-        <v>29597</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2173</v>
-      </c>
-      <c r="H18" s="9">
-        <v>12942</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>20</v>
+      <c r="F35" s="5">
+        <v>58771</v>
+      </c>
+      <c r="G35" s="5">
+        <v>4733</v>
+      </c>
+      <c r="H35" s="5">
+        <v>27046</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>4000</v>
-      </c>
-      <c r="B19" s="5">
-        <v>55532</v>
-      </c>
-      <c r="C19" s="5">
-        <v>5373</v>
-      </c>
-      <c r="D19" s="5">
-        <v>29001</v>
-      </c>
-      <c r="E19" s="5" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B36" s="5">
+        <v>82996</v>
+      </c>
+      <c r="C36" s="5">
+        <v>8049</v>
+      </c>
+      <c r="D36" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="5">
+        <v>125208</v>
+      </c>
+      <c r="G36" s="5">
+        <v>7405</v>
+      </c>
+      <c r="H36" s="5">
+        <v>46215</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B37" s="5">
+        <v>119301</v>
+      </c>
+      <c r="C37" s="5">
+        <v>10829</v>
+      </c>
+      <c r="D37" s="5">
+        <v>65461</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="5">
+        <v>147834</v>
+      </c>
+      <c r="G37" s="5">
+        <v>10179</v>
+      </c>
+      <c r="H37" s="5">
+        <v>59494</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B38" s="5">
+        <v>145945</v>
+      </c>
+      <c r="C38" s="5">
+        <v>13283</v>
+      </c>
+      <c r="D38" s="5">
+        <v>79464</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="5">
+        <v>226357</v>
+      </c>
+      <c r="G38" s="5">
+        <v>11643</v>
+      </c>
+      <c r="H38" s="5">
+        <v>76350</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>12000</v>
+      </c>
+      <c r="B39" s="5">
+        <v>193209</v>
+      </c>
+      <c r="C39" s="5">
+        <v>16029</v>
+      </c>
+      <c r="D39" s="5">
+        <v>100042</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="5">
+        <v>260865</v>
+      </c>
+      <c r="G39" s="5">
+        <v>14393</v>
+      </c>
+      <c r="H39" s="5">
+        <v>90468</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="5">
-        <v>58771</v>
-      </c>
-      <c r="G19" s="5">
-        <v>4733</v>
-      </c>
-      <c r="H19" s="5">
-        <v>27046</v>
-      </c>
-      <c r="I19" s="5" t="s">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>14000</v>
+      </c>
+      <c r="B40" s="5">
+        <v>227765</v>
+      </c>
+      <c r="C40" s="5">
+        <v>18747</v>
+      </c>
+      <c r="D40" s="5">
+        <v>120170</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="5">
+        <v>330768</v>
+      </c>
+      <c r="G40" s="5">
+        <v>17431</v>
+      </c>
+      <c r="H40" s="5">
+        <v>109697</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="B20" s="5">
-        <v>82996</v>
-      </c>
-      <c r="C20" s="5">
-        <v>8049</v>
-      </c>
-      <c r="D20" s="5">
-        <v>43625</v>
-      </c>
-      <c r="E20" s="6" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>16000</v>
+      </c>
+      <c r="B41" s="5">
+        <v>256702</v>
+      </c>
+      <c r="C41" s="5">
+        <v>21395</v>
+      </c>
+      <c r="D41" s="8">
+        <v>136124</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="5">
+        <v>366635</v>
+      </c>
+      <c r="G41" s="5">
+        <v>19329</v>
+      </c>
+      <c r="H41" s="5">
+        <v>123983</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="5">
-        <v>125208</v>
-      </c>
-      <c r="G20" s="5">
-        <v>7405</v>
-      </c>
-      <c r="H20" s="5">
-        <v>46215</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>8000</v>
-      </c>
-      <c r="B21" s="5">
-        <v>119301</v>
-      </c>
-      <c r="C21" s="5">
-        <v>10829</v>
-      </c>
-      <c r="D21" s="5">
-        <v>65461</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="5">
-        <v>147834</v>
-      </c>
-      <c r="G21" s="5">
-        <v>10179</v>
-      </c>
-      <c r="H21" s="5">
-        <v>59494</v>
-      </c>
-      <c r="I21" s="5" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>18000</v>
+      </c>
+      <c r="B42" s="5">
+        <v>299923</v>
+      </c>
+      <c r="C42" s="5">
+        <v>24137</v>
+      </c>
+      <c r="D42" s="5">
+        <v>155314</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="F42" s="5">
+        <v>425873</v>
+      </c>
+      <c r="G42" s="5">
+        <v>22585</v>
+      </c>
+      <c r="H42" s="5">
+        <v>140334</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B22" s="5">
-        <v>145945</v>
-      </c>
-      <c r="C22" s="5">
-        <v>13283</v>
-      </c>
-      <c r="D22" s="5">
-        <v>79464</v>
-      </c>
-      <c r="E22" s="10" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B43" s="5">
+        <v>332817</v>
+      </c>
+      <c r="C43" s="5">
+        <v>26769</v>
+      </c>
+      <c r="D43" s="5">
+        <v>178173</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="5">
-        <v>226357</v>
-      </c>
-      <c r="G22" s="5">
-        <v>11643</v>
-      </c>
-      <c r="H22" s="5">
-        <v>76350</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>22</v>
+      <c r="F43" s="5">
+        <v>465548</v>
+      </c>
+      <c r="G43" s="5">
+        <v>24763</v>
+      </c>
+      <c r="H43" s="5">
+        <v>152354</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>12000</v>
-      </c>
-      <c r="B23" s="5">
-        <v>193209</v>
-      </c>
-      <c r="C23" s="5">
-        <v>16029</v>
-      </c>
-      <c r="D23" s="5">
-        <v>100042</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="5">
-        <v>260865</v>
-      </c>
-      <c r="G23" s="5">
-        <v>14393</v>
-      </c>
-      <c r="H23" s="5">
-        <v>90468</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>14000</v>
-      </c>
-      <c r="B24" s="5">
-        <v>227765</v>
-      </c>
-      <c r="C24" s="5">
-        <v>18747</v>
-      </c>
-      <c r="D24" s="5">
-        <v>120170</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="5">
-        <v>330768</v>
-      </c>
-      <c r="G24" s="5">
-        <v>17431</v>
-      </c>
-      <c r="H24" s="5">
-        <v>109697</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>16000</v>
-      </c>
-      <c r="B25" s="5">
-        <v>256702</v>
-      </c>
-      <c r="C25" s="5">
-        <v>21395</v>
-      </c>
-      <c r="D25" s="9">
-        <v>136124</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="5">
-        <v>366635</v>
-      </c>
-      <c r="G25" s="5">
-        <v>19329</v>
-      </c>
-      <c r="H25" s="5">
-        <v>123983</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>18000</v>
-      </c>
-      <c r="B26" s="5">
-        <v>299923</v>
-      </c>
-      <c r="C26" s="5">
-        <v>24137</v>
-      </c>
-      <c r="D26" s="5">
-        <v>155314</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="5">
-        <v>425873</v>
-      </c>
-      <c r="G26" s="5">
-        <v>22585</v>
-      </c>
-      <c r="H26" s="5">
-        <v>140334</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>20000</v>
-      </c>
-      <c r="B27" s="5">
-        <v>332817</v>
-      </c>
-      <c r="C27" s="5">
-        <v>26769</v>
-      </c>
-      <c r="D27" s="5">
-        <v>178173</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="5">
-        <v>465548</v>
-      </c>
-      <c r="G27" s="5">
-        <v>24763</v>
-      </c>
-      <c r="H27" s="5">
-        <v>152354</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="11"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1999</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1999</v>
-      </c>
-      <c r="G51" s="5">
-        <v>1999000</v>
-      </c>
-      <c r="H51" s="9">
-        <v>1999000</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>4000</v>
-      </c>
-      <c r="B52" s="5">
-        <v>3999</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0</v>
-      </c>
-      <c r="D52" s="5">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="5">
-        <v>3999</v>
-      </c>
-      <c r="G52" s="5">
-        <v>7998000</v>
-      </c>
-      <c r="H52" s="5">
-        <v>7998000</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>6000</v>
-      </c>
-      <c r="B53" s="5">
-        <v>5999</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0</v>
-      </c>
-      <c r="D53" s="5">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="5">
-        <v>5999</v>
-      </c>
-      <c r="G53" s="5">
-        <v>17997000</v>
-      </c>
-      <c r="H53" s="5">
-        <v>17997000</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>8000</v>
-      </c>
-      <c r="B54" s="5">
-        <v>7999</v>
-      </c>
-      <c r="C54" s="5">
-        <v>0</v>
-      </c>
-      <c r="D54" s="5">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="5">
-        <v>7999</v>
-      </c>
-      <c r="G54" s="5">
-        <v>31996000</v>
-      </c>
-      <c r="H54" s="5">
-        <v>31996000</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B55" s="5">
-        <v>9999</v>
-      </c>
-      <c r="C55" s="5">
-        <v>0</v>
-      </c>
-      <c r="D55" s="5">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="5">
-        <v>9999</v>
-      </c>
-      <c r="G55" s="5">
-        <v>49995000</v>
-      </c>
-      <c r="H55" s="6">
-        <v>49995000</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>12000</v>
-      </c>
-      <c r="B56" s="5">
-        <v>11999</v>
-      </c>
-      <c r="C56" s="5">
-        <v>0</v>
-      </c>
-      <c r="D56" s="5">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="5">
-        <v>11999</v>
-      </c>
-      <c r="G56" s="1">
-        <v>71994000</v>
-      </c>
-      <c r="H56" s="5">
-        <v>71994000</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>14000</v>
-      </c>
-      <c r="B57" s="5">
-        <v>13999</v>
-      </c>
-      <c r="C57" s="5">
-        <v>0</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="5">
-        <v>13999</v>
-      </c>
-      <c r="G57" s="5">
-        <v>97993000</v>
-      </c>
-      <c r="H57" s="5">
-        <v>97993000</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>16000</v>
-      </c>
-      <c r="B58" s="5">
-        <v>15999</v>
-      </c>
-      <c r="C58" s="5">
-        <v>0</v>
-      </c>
-      <c r="D58" s="5">
-        <v>0</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="5">
-        <v>15999</v>
-      </c>
-      <c r="G58" s="5">
-        <v>127992000</v>
-      </c>
-      <c r="H58" s="5">
-        <v>127992000</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>18000</v>
-      </c>
-      <c r="B59" s="5">
-        <v>17999</v>
-      </c>
-      <c r="C59" s="5">
-        <v>0</v>
-      </c>
-      <c r="D59" s="5">
-        <v>0</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="5">
-        <v>17999</v>
-      </c>
-      <c r="G59" s="6">
-        <v>161991000</v>
-      </c>
-      <c r="H59" s="5">
-        <v>161991000</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>20000</v>
-      </c>
-      <c r="B60" s="1">
-        <v>19999</v>
-      </c>
-      <c r="C60" s="5">
-        <v>0</v>
-      </c>
-      <c r="D60" s="5">
-        <v>0</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="1">
-        <v>19999</v>
-      </c>
-      <c r="G60" s="5">
-        <v>199990000</v>
-      </c>
-      <c r="H60" s="5">
-        <v>199990000</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
+      <c r="A62" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="29"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="5"/>
+      <c r="A64" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1999</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1999000</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1999000</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B67" s="5">
+        <v>3999</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="5">
+        <v>3999</v>
+      </c>
+      <c r="G67" s="5">
+        <v>7998000</v>
+      </c>
+      <c r="H67" s="5">
+        <v>7998000</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B68" s="5">
+        <v>5999</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="5">
+        <v>5999</v>
+      </c>
+      <c r="G68" s="5">
+        <v>17997000</v>
+      </c>
+      <c r="H68" s="5">
+        <v>17997000</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B69" s="5">
+        <v>7999</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="5">
+        <v>7999</v>
+      </c>
+      <c r="G69" s="5">
+        <v>31996000</v>
+      </c>
+      <c r="H69" s="5">
+        <v>31996000</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B70" s="5">
+        <v>9999</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="5">
+        <v>9999</v>
+      </c>
+      <c r="G70" s="5">
+        <v>49995000</v>
+      </c>
+      <c r="H70" s="6">
+        <v>49995000</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>12000</v>
+      </c>
+      <c r="B71" s="5">
+        <v>11999</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="5">
+        <v>11999</v>
+      </c>
+      <c r="G71" s="1">
+        <v>71994000</v>
+      </c>
+      <c r="H71" s="5">
+        <v>71994000</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>14000</v>
+      </c>
+      <c r="B72" s="5">
+        <v>13999</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="5">
+        <v>13999</v>
+      </c>
+      <c r="G72" s="5">
+        <v>97993000</v>
+      </c>
+      <c r="H72" s="5">
+        <v>97993000</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>16000</v>
+      </c>
+      <c r="B73" s="5">
+        <v>15999</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="5">
+        <v>15999</v>
+      </c>
+      <c r="G73" s="5">
+        <v>127992000</v>
+      </c>
+      <c r="H73" s="5">
+        <v>127992000</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>18000</v>
+      </c>
+      <c r="B74" s="5">
+        <v>17999</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="5">
+        <v>17999</v>
+      </c>
+      <c r="G74" s="6">
+        <v>161991000</v>
+      </c>
+      <c r="H74" s="5">
+        <v>161991000</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B75" s="1">
+        <v>19999</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="1">
+        <v>19999</v>
+      </c>
+      <c r="G75" s="5">
+        <v>199990000</v>
+      </c>
+      <c r="H75" s="5">
+        <v>199990000</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B16:I16"/>
+  <mergeCells count="9">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A62:I63"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Graficos y data.xlsx
+++ b/Graficos y data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/dhnmelfer_estudiantec_cr/Documents/Documentos/TEC/III Semestre/Analisis de algoritmos/Casos/Caso2/Caso2MelanySalas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="8_{11668E90-3595-4F63-918F-A1F6182A0791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E21EDE-A4DA-49BA-BED0-FD55A72E099D}"/>
+  <xr:revisionPtr revIDLastSave="1402" documentId="8_{11668E90-3595-4F63-918F-A1F6182A0791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D650A8E3-A839-464B-9C68-F5557469E5FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2F1ED3F0-0125-4EF3-9718-465DC28973F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{2F1ED3F0-0125-4EF3-9718-465DC28973F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="QuickSort" sheetId="1" r:id="rId1"/>
+    <sheet name="InsertionSort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>Quick sort</t>
   </si>
@@ -97,9 +98,6 @@
     <t>1.993</t>
   </si>
   <si>
-    <t>0.013</t>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
@@ -124,41 +122,55 @@
     <t>Mejor de los casos O(n)</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>0.000</t>
   </si>
   <si>
-    <t>0.062</t>
+    <t>0.004</t>
   </si>
   <si>
-    <t>0.083</t>
+    <t>0.005</t>
   </si>
   <si>
-    <t>0.16</t>
+    <t>Caso n*log(n)</t>
   </si>
   <si>
-    <t>0.284</t>
+    <t>n*log(n)</t>
   </si>
   <si>
-    <t>0.341</t>
+    <t>Relacion de tiempo</t>
   </si>
   <si>
-    <t>0.449</t>
+    <t>Relacion de O</t>
   </si>
   <si>
-    <t>0.576</t>
+    <t>Relacion de cambios</t>
   </si>
   <si>
-    <t>0.769</t>
+    <t>Tiempo en s</t>
   </si>
   <si>
-    <t>0.994</t>
+    <t>Tiempo en microsengundos</t>
+  </si>
+  <si>
+    <t>Otras pruebas n log(n)</t>
+  </si>
+  <si>
+    <t>Tiempo en microsegundos</t>
+  </si>
+  <si>
+    <t>1.09908e+006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +193,18 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -214,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -338,11 +362,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -360,7 +409,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -368,6 +416,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,19 +432,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -400,15 +454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,8 +468,73 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,15 +585,25 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Aumento</a:t>
+              <a:t>Cambios</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> de c</a:t>
+              <a:t> e Iteraciones</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>ambios realizados</a:t>
+              <a:t> O(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n^2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -524,9 +644,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18580314960629921"/>
-          <c:y val="0.1300462962962963"/>
-          <c:w val="0.76697462817147855"/>
+          <c:x val="9.5516984198015145E-2"/>
+          <c:y val="0.13467952789312843"/>
+          <c:w val="0.71586461802906631"/>
           <c:h val="0.69773950131233597"/>
         </c:manualLayout>
       </c:layout>
@@ -536,10 +656,13 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Cambios</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -550,11 +673,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -562,7 +685,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$5:$A$14</c:f>
+              <c:f>QuickSort!$A$5:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -601,7 +724,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$5:$D$14</c:f>
+              <c:f>QuickSort!$D$5:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -646,6 +769,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -657,6 +781,139 @@
         <c:smooth val="0"/>
         <c:axId val="1156727055"/>
         <c:axId val="1156729135"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Iteraciones</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$A$5:$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$B$5:$B$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1999000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7998000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17997000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>31996000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>49995000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71994000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>97993000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>127992000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>161991000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>199990000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-6968-4C59-A17F-2AABC758E32A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1156727055"/>
@@ -773,6 +1030,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8446369113740676"/>
+          <c:y val="0.4139157925534418"/>
+          <c:w val="0.12425560453171569"/>
+          <c:h val="7.8183717179485038E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -845,11 +1143,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Aumento de iteraciones</a:t>
+              <a:t>Cambios</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44763857180574329"/>
+          <c:y val="6.563474569254639E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -886,379 +1192,12 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14135870516185478"/>
-          <c:y val="0.14393518518518519"/>
-          <c:w val="0.80153018372703411"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.15655321613274956"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.57679164173032771"/>
+          <c:h val="0.77736111111111106"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$A$5:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$B$5:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1999000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7998000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17997000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31996000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49995000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71994000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>97993000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127992000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>161991000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199990000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80D8-494D-A733-5FCDC4B12D35}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="173752063"/>
-        <c:axId val="173752895"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="173752063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="173752895"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="173752895"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="173752063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Cambios</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1266,12 +1205,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Cambios</c:v>
+            <c:v>Cambios prueba 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1280,23 +1219,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$34:$A$43</c:f>
+              <c:f>QuickSort!$A$74:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1335,7 +1260,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$34:$D$43</c:f>
+              <c:f>QuickSort!$D$74:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1376,6 +1301,70 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CE9F-47DE-95D8-9C450C04DA8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cambios prueba 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>QuickSort!$H$74:$H$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>185082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C7EE-4262-9BA7-3EFA2976CA5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1506,6 +1495,535 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Cambios n logn</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cambios</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>QuickSort!$A$36:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QuickSort!$D$36:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76670</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89684</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96617</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7299-4E7C-82FF-4DC4822B9446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n*log(n)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>QuickSort!$F$36:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6602.0599913279621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10431.363764158988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14408.23996531185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18494.850021680093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22668.907502301859</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26915.686280099799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31224.719895935552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35588.182584953924</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44455.319536740477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48950.174952571499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53481.263579988881</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58045.792499495336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62641.368885835218</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67265.9197224948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7299-4E7C-82FF-4DC4822B9446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1157145647"/>
+        <c:axId val="1157143567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1157145647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1157143567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1157143567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1157145647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1585,8 +2103,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Recursion</a:t>
+              <a:t>Cambios</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> con pivote aleatorio</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1621,27 +2144,20 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10735870516185476"/>
-          <c:y val="0.13004629629629633"/>
-          <c:w val="0.86486351706036746"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Cambios</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1652,39 +2168,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$34:$C$43</c:f>
+              <c:f>QuickSort!$H$5:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2651</c:v>
+                  <c:v>17159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5373</c:v>
+                  <c:v>34872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8049</c:v>
+                  <c:v>54137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10829</c:v>
+                  <c:v>67355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13283</c:v>
+                  <c:v>79565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16029</c:v>
+                  <c:v>100782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18747</c:v>
+                  <c:v>112682</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21395</c:v>
+                  <c:v>148119</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24137</c:v>
+                  <c:v>162996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26769</c:v>
+                  <c:v>176168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,7 +2208,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D24-4A8C-9204-BE14B8740CDC}"/>
+              <c16:uniqueId val="{00000000-0A97-48A7-AA69-2DE2B37D2A10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1705,11 +2221,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1036595536"/>
-        <c:axId val="1036595952"/>
+        <c:axId val="1054454943"/>
+        <c:axId val="1054450783"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1036595536"/>
+        <c:axId val="1054454943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +2267,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1036595952"/>
+        <c:crossAx val="1054450783"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1759,7 +2275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1036595952"/>
+        <c:axId val="1054450783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,7 +2326,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1036595536"/>
+        <c:crossAx val="1054454943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1822,6 +2338,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1867,320 +2414,6 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Iteraciones</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35968044619422573"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$34:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>23116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55532</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>82996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>119301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>145945</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>193209</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>227765</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256702</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>299923</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>332817</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76A6-40C6-9E5B-7277701054B2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1496770240"/>
-        <c:axId val="1496765664"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1496770240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1496765664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1496765664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1496770240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2273,23 +2506,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$66:$A$75</c:f>
+              <c:f>InsertionSort!$A$5:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2328,7 +2547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$66:$B$75</c:f>
+              <c:f>InsertionSort!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2368,7 +2587,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7AE3-4EF6-9425-949130F2BD2C}"/>
+              <c16:uniqueId val="{00000001-636C-4CBC-850A-DAC8BDE8C686}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2392,7 +2611,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$66:$A$75</c:f>
+              <c:f>InsertionSort!$A$5:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2431,7 +2650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$66:$D$75</c:f>
+              <c:f>InsertionSort!$D$5:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2471,7 +2690,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7AE3-4EF6-9425-949130F2BD2C}"/>
+              <c16:uniqueId val="{00000002-636C-4CBC-850A-DAC8BDE8C686}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2678,7 +2897,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2773,7 +2992,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$66:$A$75</c:f>
+              <c:f>InsertionSort!$A$5:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2812,7 +3031,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$66:$H$75</c:f>
+              <c:f>InsertionSort!$H$5:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2852,7 +3071,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2751-4784-BB61-DDD4D8396612}"/>
+              <c16:uniqueId val="{00000000-7361-414A-AB3B-E0290CF575C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2874,41 +3093,53 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$F$66:$F$75</c:f>
+              <c:f>InsertionSort!$A$5:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3999</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5999</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7999</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9999</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11999</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13999</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15999</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17999</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19999</c:v>
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QuickSort!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2916,7 +3147,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2751-4784-BB61-DDD4D8396612}"/>
+              <c16:uniqueId val="{00000001-7361-414A-AB3B-E0290CF575C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3005,6 +3236,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cambios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3153,13 +3409,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3193,13 +3446,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3233,13 +3483,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3273,13 +3520,10 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3392,46 +3636,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3936,7 +4140,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3963,8 +4167,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4044,6 +4248,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4054,6 +4263,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4065,7 +4279,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4085,6 +4299,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4097,10 +4314,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4140,23 +4357,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4261,8 +4477,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4394,20 +4610,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4421,17 +4636,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6000,522 +6204,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7036,15 +6724,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7071,23 +6759,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>319767</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>149905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Gráfico 10">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B4A94C-C00C-40F5-8D2D-A333DC5419F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95ED62C-2E8F-4C98-900E-87958023CBD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7108,22 +6796,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>356506</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>44676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>680359</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95ED62C-2E8F-4C98-900E-87958023CBD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A369C176-D0CA-4282-85BF-2410AE8A0DB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7143,23 +6831,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>131309</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B98916-907F-4406-B4FE-FD39C5E0A0DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52655876-3133-4763-A5EC-4C633F273A06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7177,29 +6865,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>644526</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEF7140-1025-4263-9C74-EF0100B86BC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C8F11D-6EB0-4270-BC4C-457F4695CB25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7207,7 +6902,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7215,27 +6910,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>461964</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C545744-83A7-4B15-BBBA-FBF0DAF9ADF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BF01ED-87B2-4AB0-ACFC-002C6D860066}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7243,43 +6940,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7B7677-6EA8-4154-82A1-0EC55259F1E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7585,71 +7246,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D9CBD-377A-44E1-9C3F-AA845A571B98}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -7976,707 +7648,1344 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="T35" s="34"/>
+      <c r="V35" s="38"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B36" s="5">
+        <v>11096</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1297</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5511</v>
+      </c>
+      <c r="E36" s="36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <f>PRODUCT(A36,LOG(A36))</f>
+        <v>3000</v>
+      </c>
+      <c r="G36" s="41">
+        <f>G38</f>
+        <v>1.9900398406374502</v>
+      </c>
+      <c r="H36" s="5">
+        <f>F37/F36</f>
+        <v>2.2006866637759872</v>
+      </c>
+      <c r="I36" s="5">
+        <f>D37-D36</f>
+        <v>6515</v>
+      </c>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B37" s="5">
+        <v>29840</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2601</v>
+      </c>
+      <c r="D37" s="5">
+        <v>12026</v>
+      </c>
+      <c r="E37" s="36">
+        <v>1054</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" ref="F37:F50" si="0">PRODUCT(A37,LOG(A37))</f>
+        <v>6602.0599913279621</v>
+      </c>
+      <c r="G37" s="41">
+        <f>E38/E37</f>
+        <v>0.95256166982922197</v>
+      </c>
+      <c r="H37" s="5">
+        <f>F38/F37</f>
+        <v>1.5800165066450398</v>
+      </c>
+      <c r="I37" s="5">
+        <f>D38-D37</f>
+        <v>6652</v>
+      </c>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B38" s="5">
+        <v>50116</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3901</v>
+      </c>
+      <c r="D38" s="5">
+        <v>18678</v>
+      </c>
+      <c r="E38" s="37">
+        <v>1004</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>10431.363764158988</v>
+      </c>
+      <c r="G38" s="41">
+        <f>E39/E38</f>
+        <v>1.9900398406374502</v>
+      </c>
+      <c r="H38" s="5">
+        <f>F39/F38</f>
+        <v>1.3812422125299635</v>
+      </c>
+      <c r="I38" s="5">
+        <f>D39-D38</f>
+        <v>6722</v>
+      </c>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B39" s="5">
+        <v>70910</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5209</v>
+      </c>
+      <c r="D39" s="5">
+        <v>25400</v>
+      </c>
+      <c r="E39" s="36">
+        <v>1998</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="0"/>
+        <v>14408.23996531185</v>
+      </c>
+      <c r="G39" s="41">
+        <f>E40/E39</f>
+        <v>0.50050050050050054</v>
+      </c>
+      <c r="H39" s="5">
+        <f>F40/F39</f>
+        <v>1.2836300662819917</v>
+      </c>
+      <c r="I39" s="5">
+        <f>D40-D39</f>
+        <v>6295</v>
+      </c>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B40" s="5">
+        <v>93265</v>
+      </c>
+      <c r="C40" s="5">
+        <v>6507</v>
+      </c>
+      <c r="D40" s="5">
+        <v>31695</v>
+      </c>
+      <c r="E40" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="5">
+        <f>PRODUCT(A40,LOG(A40))</f>
+        <v>18494.850021680093</v>
+      </c>
+      <c r="G40" s="41">
+        <f>E41/E40</f>
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="H40" s="5">
+        <f>F41/F40</f>
+        <v>1.2256875549533433</v>
+      </c>
+      <c r="I40" s="5">
+        <f>D41-D40</f>
+        <v>6612</v>
+      </c>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B41" s="5">
+        <v>115559</v>
+      </c>
+      <c r="C41" s="5">
+        <v>7815</v>
+      </c>
+      <c r="D41" s="5">
+        <v>38307</v>
+      </c>
+      <c r="E41" s="36">
+        <v>2001</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
+        <v>22668.907502301859</v>
+      </c>
+      <c r="G41" s="41">
+        <f>E42/E41</f>
+        <v>1.0004997501249375</v>
+      </c>
+      <c r="H41" s="5">
+        <f>F42/F41</f>
+        <v>1.1873393668118637</v>
+      </c>
+      <c r="I41" s="5">
+        <f>D42-D41</f>
+        <v>6598</v>
+      </c>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="B42" s="5">
+        <v>139336</v>
+      </c>
+      <c r="C42" s="5">
+        <v>9117</v>
+      </c>
+      <c r="D42" s="5">
+        <v>44905</v>
+      </c>
+      <c r="E42" s="36">
+        <v>2002</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
+        <v>26915.686280099799</v>
+      </c>
+      <c r="G42" s="41">
+        <f>E43/E42</f>
+        <v>1.4980019980019981</v>
+      </c>
+      <c r="H42" s="5">
+        <f>F43/F42</f>
+        <v>1.1600937672921849</v>
+      </c>
+      <c r="I42" s="5">
+        <f>D43-D42</f>
+        <v>6553</v>
+      </c>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B43" s="5">
+        <v>163897</v>
+      </c>
+      <c r="C43" s="5">
+        <v>10419</v>
+      </c>
+      <c r="D43" s="7">
+        <v>51458</v>
+      </c>
+      <c r="E43" s="36">
+        <v>2999</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
+        <v>31224.719895935552</v>
+      </c>
+      <c r="G43" s="41">
+        <f>E44/E43</f>
+        <v>1.334111370456819</v>
+      </c>
+      <c r="H43" s="5">
+        <f>F44/F43</f>
+        <v>1.1397438537018343</v>
+      </c>
+      <c r="I43" s="5">
+        <f>D44-D43</f>
+        <v>6683</v>
+      </c>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="B44" s="5">
+        <v>189612</v>
+      </c>
+      <c r="C44" s="5">
+        <v>11721</v>
+      </c>
+      <c r="D44" s="5">
+        <v>58141</v>
+      </c>
+      <c r="E44" s="36">
+        <v>4001</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="0"/>
+        <v>35588.182584953924</v>
+      </c>
+      <c r="G44" s="41">
+        <f>E45/E44</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <f>F45/F44</f>
+        <v>1.1239686068406123</v>
+      </c>
+      <c r="I44" s="5">
+        <f>D45-D44</f>
+        <v>5443</v>
+      </c>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B45" s="5">
+        <v>209420</v>
+      </c>
+      <c r="C45" s="5">
+        <v>13025</v>
+      </c>
+      <c r="D45" s="5">
+        <v>63584</v>
+      </c>
+      <c r="E45" s="7">
+        <v>4001</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="G45" s="41">
+        <f>E46/E45</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <f>F46/F45</f>
+        <v>1.111382988418512</v>
+      </c>
+      <c r="I45" s="5">
+        <f>D46-D45</f>
+        <v>6329</v>
+      </c>
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="B46" s="5">
+        <v>236227</v>
+      </c>
+      <c r="C46" s="5">
+        <v>14323</v>
+      </c>
+      <c r="D46" s="7">
+        <v>69913</v>
+      </c>
+      <c r="E46" s="36">
+        <v>4001</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="0"/>
+        <v>44455.319536740477</v>
+      </c>
+      <c r="G46" s="41">
+        <f>E47/E46</f>
+        <v>1.2494376405898526</v>
+      </c>
+      <c r="H46" s="5">
+        <f>F47/F46</f>
+        <v>1.1011095064138772</v>
+      </c>
+      <c r="I46" s="5">
+        <f>D47-D46</f>
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="B47" s="1">
+        <v>263380</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15633</v>
+      </c>
+      <c r="D47" s="1">
+        <v>76670</v>
+      </c>
+      <c r="E47" s="36">
+        <v>4999</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="0"/>
+        <v>48950.174952571499</v>
+      </c>
+      <c r="G47" s="41">
+        <f>E48/E47</f>
+        <v>1.001000200040008</v>
+      </c>
+      <c r="H47" s="5">
+        <f>F48/F47</f>
+        <v>1.0925653203856291</v>
+      </c>
+      <c r="I47" s="5">
+        <f>D48-D47</f>
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>13000</v>
+      </c>
+      <c r="B48" s="1">
+        <v>292869</v>
+      </c>
+      <c r="C48" s="1">
+        <v>16935</v>
+      </c>
+      <c r="D48" s="1">
+        <v>83706</v>
+      </c>
+      <c r="E48" s="36">
+        <v>5004</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="0"/>
+        <v>53481.263579988881</v>
+      </c>
+      <c r="G48" s="41">
+        <f>E49/E48</f>
+        <v>0.79856115107913672</v>
+      </c>
+      <c r="H48" s="5">
+        <f>F49/F48</f>
+        <v>1.0853481876448103</v>
+      </c>
+      <c r="I48" s="5">
+        <f>D49-D48</f>
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>14000</v>
+      </c>
+      <c r="B49" s="1">
+        <v>323036</v>
+      </c>
+      <c r="C49" s="1">
+        <v>18229</v>
+      </c>
+      <c r="D49" s="1">
+        <v>89684</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3996</v>
+      </c>
+      <c r="F49" s="39">
+        <f t="shared" si="0"/>
+        <v>58045.792499495336</v>
+      </c>
+      <c r="G49" s="41">
+        <f>E50/E49</f>
+        <v>1.0010010010010011</v>
+      </c>
+      <c r="H49" s="5">
+        <f>F50/F49</f>
+        <v>1.0791715676270566</v>
+      </c>
+      <c r="I49" s="5">
+        <f>D50-D49</f>
+        <v>6933</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B50" s="1">
+        <v>353648</v>
+      </c>
+      <c r="C50" s="1">
+        <v>19541</v>
+      </c>
+      <c r="D50" s="1">
+        <v>96617</v>
+      </c>
+      <c r="E50" s="36">
+        <v>4000</v>
+      </c>
+      <c r="F50" s="5">
+        <f>PRODUCT(A50,LOG(A50))</f>
+        <v>62641.368885835218</v>
+      </c>
+      <c r="G50" s="41">
+        <f>E51/E50</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="5">
+        <f>F51/F50</f>
+        <v>1.0738258265889413</v>
+      </c>
+      <c r="I50" s="5">
+        <f>D51-D50</f>
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>16000</v>
+      </c>
+      <c r="B51" s="1">
+        <v>385170</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20841</v>
+      </c>
+      <c r="D51" s="1">
+        <v>103182</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="5">
+        <f>PRODUCT(A51,LOG(A51))</f>
+        <v>67265.9197224948</v>
+      </c>
+      <c r="G51" s="41">
+        <f>T35/E51</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <f>U35/F51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="45"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="9"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K64" s="9"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="C73" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="D73" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>2</v>
+      <c r="E73" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>2000</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B74" s="5">
         <v>23116</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C74" s="5">
         <v>2651</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D74" s="5">
         <v>12619</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="5">
-        <v>29597</v>
-      </c>
-      <c r="G34" s="5">
-        <v>2173</v>
-      </c>
-      <c r="H34" s="8">
-        <v>12942</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="F74" s="5">
+        <v>27651</v>
+      </c>
+      <c r="G74" s="5">
+        <v>2633</v>
+      </c>
+      <c r="H74" s="5">
+        <v>15827</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>4000</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B75" s="5">
         <v>55532</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C75" s="12">
         <v>5373</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D75" s="5">
         <v>29001</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="5">
-        <v>58771</v>
-      </c>
-      <c r="G35" s="5">
-        <v>4733</v>
-      </c>
-      <c r="H35" s="5">
-        <v>27046</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="E75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="5">
+        <v>54894</v>
+      </c>
+      <c r="G75" s="12">
+        <v>5317</v>
+      </c>
+      <c r="H75" s="5">
+        <v>31157</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B76" s="5">
+        <v>82996</v>
+      </c>
+      <c r="C76" s="5">
+        <v>8049</v>
+      </c>
+      <c r="D76" s="5">
+        <v>43625</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="5">
+        <v>82996</v>
+      </c>
+      <c r="G76" s="5">
+        <v>8033</v>
+      </c>
+      <c r="H76" s="5">
+        <v>60041</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B77" s="5">
+        <v>119301</v>
+      </c>
+      <c r="C77" s="5">
+        <v>10829</v>
+      </c>
+      <c r="D77" s="5">
+        <v>65461</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="5">
+        <v>122426</v>
+      </c>
+      <c r="G77" s="5">
+        <v>10829</v>
+      </c>
+      <c r="H77" s="5">
+        <v>71629</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>6000</v>
-      </c>
-      <c r="B36" s="5">
-        <v>82996</v>
-      </c>
-      <c r="C36" s="5">
-        <v>8049</v>
-      </c>
-      <c r="D36" s="5">
-        <v>43625</v>
-      </c>
-      <c r="E36" s="6" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B78" s="5">
+        <v>145945</v>
+      </c>
+      <c r="C78" s="5">
+        <v>13283</v>
+      </c>
+      <c r="D78" s="5">
+        <v>79464</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="5">
+        <v>169854</v>
+      </c>
+      <c r="G78" s="5">
+        <v>13549</v>
+      </c>
+      <c r="H78" s="5">
+        <v>100156</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>12000</v>
+      </c>
+      <c r="B79" s="5">
+        <v>193209</v>
+      </c>
+      <c r="C79" s="5">
+        <v>16029</v>
+      </c>
+      <c r="D79" s="5">
+        <v>100042</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="5">
+        <v>200852</v>
+      </c>
+      <c r="G79" s="5">
+        <v>16439</v>
+      </c>
+      <c r="H79" s="5">
+        <v>108089</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>14000</v>
+      </c>
+      <c r="B80" s="5">
+        <v>227765</v>
+      </c>
+      <c r="C80" s="5">
+        <v>18747</v>
+      </c>
+      <c r="D80" s="5">
+        <v>120170</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="5">
+        <v>228720</v>
+      </c>
+      <c r="G80" s="5">
+        <v>19323</v>
+      </c>
+      <c r="H80" s="5">
+        <v>120537</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="B81" s="5">
+        <v>256702</v>
+      </c>
+      <c r="C81" s="5">
+        <v>21395</v>
+      </c>
+      <c r="D81" s="7">
+        <v>136124</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="5">
+        <v>270355</v>
+      </c>
+      <c r="G81" s="5">
+        <v>22299</v>
+      </c>
+      <c r="H81" s="7">
+        <v>151632</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>18000</v>
+      </c>
+      <c r="B82" s="5">
+        <v>299923</v>
+      </c>
+      <c r="C82" s="5">
+        <v>24137</v>
+      </c>
+      <c r="D82" s="5">
+        <v>155314</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="5">
-        <v>125208</v>
-      </c>
-      <c r="G36" s="5">
-        <v>7405</v>
-      </c>
-      <c r="H36" s="5">
-        <v>46215</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>21</v>
+      <c r="F82" s="5">
+        <v>307624</v>
+      </c>
+      <c r="G82" s="5">
+        <v>25179</v>
+      </c>
+      <c r="H82" s="5">
+        <v>164328</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>8000</v>
-      </c>
-      <c r="B37" s="5">
-        <v>119301</v>
-      </c>
-      <c r="C37" s="5">
-        <v>10829</v>
-      </c>
-      <c r="D37" s="5">
-        <v>65461</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="5">
-        <v>147834</v>
-      </c>
-      <c r="G37" s="5">
-        <v>10179</v>
-      </c>
-      <c r="H37" s="5">
-        <v>59494</v>
-      </c>
-      <c r="I37" s="5" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B83" s="5">
+        <v>332817</v>
+      </c>
+      <c r="C83" s="5">
+        <v>26769</v>
+      </c>
+      <c r="D83" s="5">
+        <v>178173</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B38" s="5">
-        <v>145945</v>
-      </c>
-      <c r="C38" s="5">
-        <v>13283</v>
-      </c>
-      <c r="D38" s="5">
-        <v>79464</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="5">
-        <v>226357</v>
-      </c>
-      <c r="G38" s="5">
-        <v>11643</v>
-      </c>
-      <c r="H38" s="5">
-        <v>76350</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>12000</v>
-      </c>
-      <c r="B39" s="5">
-        <v>193209</v>
-      </c>
-      <c r="C39" s="5">
-        <v>16029</v>
-      </c>
-      <c r="D39" s="5">
-        <v>100042</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="5">
-        <v>260865</v>
-      </c>
-      <c r="G39" s="5">
-        <v>14393</v>
-      </c>
-      <c r="H39" s="5">
-        <v>90468</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>14000</v>
-      </c>
-      <c r="B40" s="5">
-        <v>227765</v>
-      </c>
-      <c r="C40" s="5">
-        <v>18747</v>
-      </c>
-      <c r="D40" s="5">
-        <v>120170</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="5">
-        <v>330768</v>
-      </c>
-      <c r="G40" s="5">
-        <v>17431</v>
-      </c>
-      <c r="H40" s="5">
-        <v>109697</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>16000</v>
-      </c>
-      <c r="B41" s="5">
-        <v>256702</v>
-      </c>
-      <c r="C41" s="5">
-        <v>21395</v>
-      </c>
-      <c r="D41" s="8">
-        <v>136124</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="5">
-        <v>366635</v>
-      </c>
-      <c r="G41" s="5">
-        <v>19329</v>
-      </c>
-      <c r="H41" s="5">
-        <v>123983</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>18000</v>
-      </c>
-      <c r="B42" s="5">
-        <v>299923</v>
-      </c>
-      <c r="C42" s="5">
-        <v>24137</v>
-      </c>
-      <c r="D42" s="5">
-        <v>155314</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="5">
-        <v>425873</v>
-      </c>
-      <c r="G42" s="5">
-        <v>22585</v>
-      </c>
-      <c r="H42" s="5">
-        <v>140334</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>20000</v>
-      </c>
-      <c r="B43" s="5">
-        <v>332817</v>
-      </c>
-      <c r="C43" s="5">
-        <v>26769</v>
-      </c>
-      <c r="D43" s="5">
-        <v>178173</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="5">
-        <v>465548</v>
-      </c>
-      <c r="G43" s="5">
-        <v>24763</v>
-      </c>
-      <c r="H43" s="5">
-        <v>152354</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="27"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="22"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B66" s="5">
-        <v>1999</v>
-      </c>
-      <c r="C66" s="5">
-        <v>0</v>
-      </c>
-      <c r="D66" s="5">
-        <v>0</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="5">
-        <v>1999</v>
-      </c>
-      <c r="G66" s="5">
-        <v>1999000</v>
-      </c>
-      <c r="H66" s="8">
-        <v>1999000</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>4000</v>
-      </c>
-      <c r="B67" s="5">
-        <v>3999</v>
-      </c>
-      <c r="C67" s="5">
-        <v>0</v>
-      </c>
-      <c r="D67" s="5">
-        <v>0</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="5">
-        <v>3999</v>
-      </c>
-      <c r="G67" s="5">
-        <v>7998000</v>
-      </c>
-      <c r="H67" s="5">
-        <v>7998000</v>
-      </c>
-      <c r="I67" s="5" t="s">
+      <c r="F83" s="5">
+        <v>345928</v>
+      </c>
+      <c r="G83" s="5">
+        <v>28319</v>
+      </c>
+      <c r="H83" s="5">
+        <v>185082</v>
+      </c>
+      <c r="I83" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>6000</v>
-      </c>
-      <c r="B68" s="5">
-        <v>5999</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0</v>
-      </c>
-      <c r="D68" s="5">
-        <v>0</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="5">
-        <v>5999</v>
-      </c>
-      <c r="G68" s="5">
-        <v>17997000</v>
-      </c>
-      <c r="H68" s="5">
-        <v>17997000</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>8000</v>
-      </c>
-      <c r="B69" s="5">
-        <v>7999</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0</v>
-      </c>
-      <c r="D69" s="5">
-        <v>0</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="5">
-        <v>7999</v>
-      </c>
-      <c r="G69" s="5">
-        <v>31996000</v>
-      </c>
-      <c r="H69" s="5">
-        <v>31996000</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B70" s="5">
-        <v>9999</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0</v>
-      </c>
-      <c r="D70" s="5">
-        <v>0</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="5">
-        <v>9999</v>
-      </c>
-      <c r="G70" s="5">
-        <v>49995000</v>
-      </c>
-      <c r="H70" s="6">
-        <v>49995000</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>12000</v>
-      </c>
-      <c r="B71" s="5">
-        <v>11999</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0</v>
-      </c>
-      <c r="D71" s="5">
-        <v>0</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="5">
-        <v>11999</v>
-      </c>
-      <c r="G71" s="1">
-        <v>71994000</v>
-      </c>
-      <c r="H71" s="5">
-        <v>71994000</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>14000</v>
-      </c>
-      <c r="B72" s="5">
-        <v>13999</v>
-      </c>
-      <c r="C72" s="5">
-        <v>0</v>
-      </c>
-      <c r="D72" s="5">
-        <v>0</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="5">
-        <v>13999</v>
-      </c>
-      <c r="G72" s="5">
-        <v>97993000</v>
-      </c>
-      <c r="H72" s="5">
-        <v>97993000</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>16000</v>
-      </c>
-      <c r="B73" s="5">
-        <v>15999</v>
-      </c>
-      <c r="C73" s="5">
-        <v>0</v>
-      </c>
-      <c r="D73" s="5">
-        <v>0</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="5">
-        <v>15999</v>
-      </c>
-      <c r="G73" s="5">
-        <v>127992000</v>
-      </c>
-      <c r="H73" s="5">
-        <v>127992000</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L73" s="10"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>18000</v>
-      </c>
-      <c r="B74" s="5">
-        <v>17999</v>
-      </c>
-      <c r="C74" s="5">
-        <v>0</v>
-      </c>
-      <c r="D74" s="5">
-        <v>0</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="5">
-        <v>17999</v>
-      </c>
-      <c r="G74" s="6">
-        <v>161991000</v>
-      </c>
-      <c r="H74" s="5">
-        <v>161991000</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>20000</v>
-      </c>
-      <c r="B75" s="1">
-        <v>19999</v>
-      </c>
-      <c r="C75" s="5">
-        <v>0</v>
-      </c>
-      <c r="D75" s="5">
-        <v>0</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="1">
-        <v>19999</v>
-      </c>
-      <c r="G75" s="5">
-        <v>199990000</v>
-      </c>
-      <c r="H75" s="5">
-        <v>199990000</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="A62:I63"/>
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A9A77C-FB76-40B4-8E3B-8F81905DAF0A}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1999000</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1999000</v>
+      </c>
+      <c r="I5" s="36">
+        <v>7997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7998000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7998000</v>
+      </c>
+      <c r="I6" s="36">
+        <v>33003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5999</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>17997000</v>
+      </c>
+      <c r="H7" s="5">
+        <v>17997000</v>
+      </c>
+      <c r="I7" s="36">
+        <v>78007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>31996000</v>
+      </c>
+      <c r="H8" s="5">
+        <v>31996000</v>
+      </c>
+      <c r="I8" s="36">
+        <v>167013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B9" s="5">
+        <v>9999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>49995000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>49995000</v>
+      </c>
+      <c r="I9" s="36">
+        <v>226015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="B10" s="5">
+        <v>11999</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>71994000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>71994000</v>
+      </c>
+      <c r="I10" s="36">
+        <v>344027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>14000</v>
+      </c>
+      <c r="B11" s="5">
+        <v>13999</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>13999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>97993000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>97993000</v>
+      </c>
+      <c r="I11" s="36">
+        <v>361029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="B12" s="5">
+        <v>15999</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="5">
+        <v>15999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>127992000</v>
+      </c>
+      <c r="H12" s="5">
+        <v>127992000</v>
+      </c>
+      <c r="I12" s="36">
+        <v>508036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>18000</v>
+      </c>
+      <c r="B13" s="5">
+        <v>17999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>17999</v>
+      </c>
+      <c r="G13" s="6">
+        <v>161991000</v>
+      </c>
+      <c r="H13" s="5">
+        <v>161991000</v>
+      </c>
+      <c r="I13" s="36">
+        <v>691054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B14" s="1">
+        <v>19999</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>19999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>199990000</v>
+      </c>
+      <c r="H14" s="5">
+        <v>199990000</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>